--- a/Eurorack_MIDI_Teensy_5x5/Eurorack_MIDI_Teensy_5x5_bom.xlsx
+++ b/Eurorack_MIDI_Teensy_5x5/Eurorack_MIDI_Teensy_5x5_bom.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/Eurorack_MIDI_Teensy_5x5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/GitHub/Midi-boards/Eurorack_MIDI_Teensy_5x5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3FF49-1336-434D-8B5C-6D818C3D7B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BDAF09-6D99-D743-91E3-944D97BC11BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33380" yWindow="-8000" windowWidth="28040" windowHeight="16440" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
+    <workbookView xWindow="-36180" yWindow="-60" windowWidth="28040" windowHeight="16440" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
   </bookViews>
   <sheets>
-    <sheet name="MIDITeensy3" sheetId="1" r:id="rId1"/>
+    <sheet name="MIDITeensy5x5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MIDITeensy3!$A$1:$F$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MIDITeensy5x5!$A$1:$F$51</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -651,15 +651,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1051,8 +1051,8 @@
   </sheetPr>
   <dimension ref="A2:AC110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1082,13 +1082,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1582,12 +1582,12 @@
       <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="24"/>
       <c r="S43">
         <v>24</v>
@@ -1612,12 +1612,12 @@
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="24"/>
       <c r="S45">
         <v>24</v>
@@ -1636,12 +1636,12 @@
       </c>
     </row>
     <row r="46" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="24"/>
       <c r="S46">
         <v>24</v>
@@ -1660,48 +1660,48 @@
       </c>
     </row>
     <row r="47" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="24"/>
     </row>
     <row r="48" spans="1:25" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="18"/>
     </row>
     <row r="49" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="24"/>
     </row>
     <row r="50" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="17"/>
       <c r="E50" s="18"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="24"/>
       <c r="R51" t="s">
         <v>111</v>
@@ -1729,11 +1729,11 @@
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="17"/>
       <c r="E52" s="18"/>
     </row>
